--- a/라키비움_공통업무 단위과제.xlsx
+++ b/라키비움_공통업무 단위과제.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="90" windowWidth="21495" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="사무위임전결기준" sheetId="1" r:id="rId1"/>
-    <sheet name="처리과공통" sheetId="4" r:id="rId2"/>
+    <sheet name="사무위임전결공통업무" sheetId="1" r:id="rId1"/>
+    <sheet name="처리과공통에 비교" sheetId="4" r:id="rId2"/>
     <sheet name="처리과공통재정리" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -1554,9 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="A1:G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>

--- a/라키비움_공통업무 단위과제.xlsx
+++ b/라키비움_공통업무 단위과제.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="21495" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="사무위임전결공통업무" sheetId="1" r:id="rId1"/>
-    <sheet name="처리과공통에 비교" sheetId="4" r:id="rId2"/>
+    <sheet name="처리과 공통업무 비교(신보vs.재단)" sheetId="4" r:id="rId2"/>
     <sheet name="처리과공통재정리" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="128">
   <si>
     <t>부서공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,14 @@
   </si>
   <si>
     <t>예산관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1552,9 +1562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1564,9 +1576,10 @@
     <col min="5" max="5" width="13.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="67.5" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1588,8 +1601,11 @@
       <c r="G1" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickTop="1">
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1608,9 +1624,11 @@
       <c r="F2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="33">
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1629,9 +1647,11 @@
       <c r="F3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>110</v>
       </c>
@@ -1646,9 +1666,11 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1667,9 +1689,11 @@
       <c r="F5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1688,9 +1712,11 @@
       <c r="F6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1705,9 +1731,11 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1726,9 +1754,11 @@
       <c r="F8" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1747,9 +1777,11 @@
       <c r="F9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1768,9 +1800,11 @@
       <c r="F10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1789,9 +1823,11 @@
       <c r="F11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1810,9 +1846,11 @@
       <c r="F12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="33">
+      <c r="G12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
@@ -1831,9 +1869,12 @@
       <c r="F13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="3"/>
+      <c r="H13" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
@@ -1848,9 +1889,12 @@
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="3"/>
+      <c r="H14" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1910,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
@@ -1886,8 +1930,11 @@
         <v>105</v>
       </c>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
@@ -1907,8 +1954,11 @@
         <v>104</v>
       </c>
       <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1974,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
@@ -1944,8 +1994,11 @@
         <v>106</v>
       </c>
       <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +2017,9 @@
       <c r="F20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1977,7 +2032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
